--- a/analysis/One Response.xlsx
+++ b/analysis/One Response.xlsx
@@ -219,7 +219,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,13 +230,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -704,148 +697,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,7 +1196,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1264,13 +1257,13 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1296,13 +1289,13 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -1328,13 +1321,13 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1351,7 +1344,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1363,13 +1356,13 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1383,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1392,16 +1385,16 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1424,16 +1417,16 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1447,7 +1440,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1456,13 +1449,13 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>4</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1511,16 +1504,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -1529,13 +1522,13 @@
         <v>3</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1549,16 +1542,16 @@
         <v>3</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>4</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1567,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1581,16 +1574,16 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1599,7 +1592,7 @@
         <v>3</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1613,7 +1606,7 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -1622,10 +1615,10 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -1654,7 +1647,7 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1663,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1677,7 +1670,7 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -1703,16 +1696,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -1735,13 +1728,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1753,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1770,28 +1763,28 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>4</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1802,10 +1795,10 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -1823,7 +1816,7 @@
         <v>3</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1831,25 +1824,25 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1866,28 +1859,28 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1901,10 +1894,10 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>4</v>
@@ -1919,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1930,10 +1923,10 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>4</v>
@@ -1942,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -1951,7 +1944,7 @@
         <v>2</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1959,25 +1952,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -1994,19 +1987,19 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2015,7 +2008,7 @@
         <v>3</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2026,19 +2019,19 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2061,13 +2054,13 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -2096,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -2122,16 +2115,16 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2154,16 +2147,16 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -2186,10 +2179,10 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>4</v>
@@ -2250,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2259,13 +2252,13 @@
         <v>4</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -2291,7 +2284,7 @@
         <v>4</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -2314,10 +2307,10 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -2346,10 +2339,10 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -2378,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2387,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -2451,7 +2444,7 @@
         <v>4</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -2483,7 +2476,7 @@
         <v>4</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -2535,7 +2528,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -2631,7 +2624,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -2759,7 +2752,7 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -2791,7 +2784,7 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -2823,7 +2816,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>3</v>
